--- a/MainTop/30.10.2024/Макс печать/печать.xlsx
+++ b/MainTop/30.10.2024/Макс печать/печать.xlsx
@@ -638,13 +638,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
@@ -666,26 +666,172 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <name val="Cambria"/>
       <family val="0"/>
-      <charset val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -696,7 +842,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -720,25 +866,153 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Heading" xfId="20"/>
+    <cellStyle name="Heading 1" xfId="21"/>
+    <cellStyle name="Heading 2" xfId="22"/>
+    <cellStyle name="Text" xfId="23"/>
+    <cellStyle name="Note" xfId="24"/>
+    <cellStyle name="Footnote" xfId="25"/>
+    <cellStyle name="Hyperlink" xfId="26"/>
+    <cellStyle name="Status" xfId="27"/>
+    <cellStyle name="Good" xfId="28"/>
+    <cellStyle name="Neutral" xfId="29"/>
+    <cellStyle name="Bad" xfId="30"/>
+    <cellStyle name="Warning" xfId="31"/>
+    <cellStyle name="Error" xfId="32"/>
+    <cellStyle name="Accent" xfId="33"/>
+    <cellStyle name="Accent 1" xfId="34"/>
+    <cellStyle name="Accent 2" xfId="35"/>
+    <cellStyle name="Accent 3" xfId="36"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -747,15 +1021,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P93"/>
+  <dimension ref="A1:P94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M4" activeCellId="0" sqref="M4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P37" activeCellId="0" sqref="P37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="2" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="28.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="18.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -805,7 +1083,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>15</v>
       </c>
@@ -846,7 +1124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>18</v>
       </c>
@@ -887,7 +1165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>20</v>
       </c>
@@ -928,7 +1206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>22</v>
       </c>
@@ -969,7 +1247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>24</v>
       </c>
@@ -1010,7 +1288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>26</v>
       </c>
@@ -1051,7 +1329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>28</v>
       </c>
@@ -1092,7 +1370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>30</v>
       </c>
@@ -1133,7 +1411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>32</v>
       </c>
@@ -1174,7 +1452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>34</v>
       </c>
@@ -1215,7 +1493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>36</v>
       </c>
@@ -1256,7 +1534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>38</v>
       </c>
@@ -1297,7 +1575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>40</v>
       </c>
@@ -1338,7 +1616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>42</v>
       </c>
@@ -1379,7 +1657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>44</v>
       </c>
@@ -1420,7 +1698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>46</v>
       </c>
@@ -1461,7 +1739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>48</v>
       </c>
@@ -1502,7 +1780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>50</v>
       </c>
@@ -1543,7 +1821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>52</v>
       </c>
@@ -1584,7 +1862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>54</v>
       </c>
@@ -1625,7 +1903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>56</v>
       </c>
@@ -1666,7 +1944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>58</v>
       </c>
@@ -1707,7 +1985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>60</v>
       </c>
@@ -1748,7 +2026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>62</v>
       </c>
@@ -1789,7 +2067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>64</v>
       </c>
@@ -1830,7 +2108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>66</v>
       </c>
@@ -1871,7 +2149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>68</v>
       </c>
@@ -1912,7 +2190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>70</v>
       </c>
@@ -1953,7 +2231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>72</v>
       </c>
@@ -1994,7 +2272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>74</v>
       </c>
@@ -2035,7 +2313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>76</v>
       </c>
@@ -2076,7 +2354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>78</v>
       </c>
@@ -2117,7 +2395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>80</v>
       </c>
@@ -2158,7 +2436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>82</v>
       </c>
@@ -2199,7 +2477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>84</v>
       </c>
@@ -2240,7 +2518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>86</v>
       </c>
@@ -2284,7 +2562,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>89</v>
       </c>
@@ -2328,7 +2606,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>91</v>
       </c>
@@ -2372,7 +2650,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>93</v>
       </c>
@@ -2416,7 +2694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>95</v>
       </c>
@@ -2460,7 +2738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>97</v>
       </c>
@@ -2504,7 +2782,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>99</v>
       </c>
@@ -2548,7 +2826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>101</v>
       </c>
@@ -2592,7 +2870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>103</v>
       </c>
@@ -2636,7 +2914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>105</v>
       </c>
@@ -2680,7 +2958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>107</v>
       </c>
@@ -2724,7 +3002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>109</v>
       </c>
@@ -2768,7 +3046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>111</v>
       </c>
@@ -2812,7 +3090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>113</v>
       </c>
@@ -2856,7 +3134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>115</v>
       </c>
@@ -2900,7 +3178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>117</v>
       </c>
@@ -2944,7 +3222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>119</v>
       </c>
@@ -2988,7 +3266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>121</v>
       </c>
@@ -3035,7 +3313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>124</v>
       </c>
@@ -3079,7 +3357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>126</v>
       </c>
@@ -3123,7 +3401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>128</v>
       </c>
@@ -3167,7 +3445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>130</v>
       </c>
@@ -3211,7 +3489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>132</v>
       </c>
@@ -3255,7 +3533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>134</v>
       </c>
@@ -3299,7 +3577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>136</v>
       </c>
@@ -3343,7 +3621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>138</v>
       </c>
@@ -3387,7 +3665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>140</v>
       </c>
@@ -3431,7 +3709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>142</v>
       </c>
@@ -3475,7 +3753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>144</v>
       </c>
@@ -3519,7 +3797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>146</v>
       </c>
@@ -3563,7 +3841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>148</v>
       </c>
@@ -3607,7 +3885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>150</v>
       </c>
@@ -3651,7 +3929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>152</v>
       </c>
@@ -3695,7 +3973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>154</v>
       </c>
@@ -3739,7 +4017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>156</v>
       </c>
@@ -3783,7 +4061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>158</v>
       </c>
@@ -3827,7 +4105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>160</v>
       </c>
@@ -3871,7 +4149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>162</v>
       </c>
@@ -3915,7 +4193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>164</v>
       </c>
@@ -3959,7 +4237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>166</v>
       </c>
@@ -4003,7 +4281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>168</v>
       </c>
@@ -4047,7 +4325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>170</v>
       </c>
@@ -4091,7 +4369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>172</v>
       </c>
@@ -4135,7 +4413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>174</v>
       </c>
@@ -4179,7 +4457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>176</v>
       </c>
@@ -4223,7 +4501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>178</v>
       </c>
@@ -4267,7 +4545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
         <v>180</v>
       </c>
@@ -4311,7 +4589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>182</v>
       </c>
@@ -4352,7 +4630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
         <v>185</v>
       </c>
@@ -4393,7 +4671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
         <v>187</v>
       </c>
@@ -4434,7 +4712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
         <v>189</v>
       </c>
@@ -4475,7 +4753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
         <v>191</v>
       </c>
@@ -4516,7 +4794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
         <v>193</v>
       </c>
@@ -4557,7 +4835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
         <v>195</v>
       </c>
@@ -4598,7 +4876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
         <v>197</v>
       </c>
@@ -4639,7 +4917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
         <v>199</v>
       </c>
@@ -4680,7 +4958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
         <v>201</v>
       </c>
@@ -4719,6 +4997,12 @@
       </c>
       <c r="P93" s="0" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P94" s="0" t="n">
+        <f aca="false">SUM(P2:P93)</f>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
